--- a/Temp/Bug.xlsx
+++ b/Temp/Bug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8051F319-59B5-489C-B51F-EC4B8B72D226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8D201-AB93-44E2-ADB4-70AD0D71E9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA4719A3-D259-4A8F-A0AE-0060399068B1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>iPhone5/S</t>
   </si>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B5A8F7-038D-4483-8F29-36DAAF8124AE}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +752,9 @@
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -886,6 +889,9 @@
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
